--- a/ARA DATA Wait Lists Feb 2021.xlsx
+++ b/ARA DATA Wait Lists Feb 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/grc0396_arastudent_ac_nz/Documents/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/grc0396_arastudent_ac_nz/Documents/Database/Assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{0D0C0E17-C0CA-4612-90F4-1B0A0E86EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC00B08-5D25-4580-9D64-85DA7D4D3E45}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{0D0C0E17-C0CA-4612-90F4-1B0A0E86EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8913759-1839-471C-AC4D-6E296CA71F95}"/>
   <bookViews>
-    <workbookView xWindow="-26085" yWindow="2205" windowWidth="44910" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28530" yWindow="4425" windowWidth="44910" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1351,13 +1351,13 @@
     <t>Doctor</t>
   </si>
   <si>
-    <t>Referral</t>
-  </si>
-  <si>
     <t>ReferralNo(PK)</t>
   </si>
   <si>
     <t>DoctorNo(PK)</t>
+  </si>
+  <si>
+    <t>Referralz</t>
   </si>
 </sst>
 </file>
@@ -1507,15 +1507,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,6 +1514,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,62 +1831,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="33" t="s">
         <v>315</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="34" t="s">
         <v>439</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="M2" s="37"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -6333,16 +6333,16 @@
     <sortCondition ref="L5:L104"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARA DATA Wait Lists Feb 2021.xlsx
+++ b/ARA DATA Wait Lists Feb 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/grc0396_arastudent_ac_nz/Documents/Database/Assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{0D0C0E17-C0CA-4612-90F4-1B0A0E86EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8913759-1839-471C-AC4D-6E296CA71F95}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{0D0C0E17-C0CA-4612-90F4-1B0A0E86EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367B9E8E-3E0F-424A-8DAD-E8421CF33CBD}"/>
   <bookViews>
-    <workbookView xWindow="-28530" yWindow="4425" windowWidth="44910" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="3990" windowWidth="44910" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$2330</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$4:$P$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$4:$Q$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="446">
   <si>
     <t>Referral Date</t>
   </si>
   <si>
-    <t>Referred By</t>
-  </si>
-  <si>
     <t>Referred From</t>
   </si>
   <si>
@@ -1333,9 +1330,6 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>SurgeonID(PK)</t>
-  </si>
-  <si>
     <t>WaitlistNo(PK)</t>
   </si>
   <si>
@@ -1357,7 +1351,19 @@
     <t>DoctorNo(PK)</t>
   </si>
   <si>
-    <t>Referralz</t>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>SurgeonNo(PK)</t>
+  </si>
+  <si>
+    <t>DoctorType</t>
+  </si>
+  <si>
+    <t>DoctorName</t>
+  </si>
+  <si>
+    <t>SurgeonDepartment</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -1492,9 +1498,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,6 +1510,21 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,13 +1534,10 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1805,4544 +1820,4556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="19" style="23" customWidth="1"/>
+    <col min="12" max="12" width="22" style="23" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="40" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="31"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="E5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26343</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="26">
+        <v>42240</v>
+      </c>
+      <c r="N5" s="26">
+        <v>42188</v>
+      </c>
+      <c r="O5" s="16">
+        <v>29110</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="7">
+        <v>33965</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="26">
+        <v>42277</v>
+      </c>
+      <c r="N6" s="26">
+        <v>42188</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="7">
+        <v>18737</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="26">
+        <v>42209</v>
+      </c>
+      <c r="N7" s="26">
+        <v>42191</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="7">
+        <v>22765</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M8" s="26">
+        <v>42273</v>
+      </c>
+      <c r="N8" s="26">
+        <v>42198</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="7">
+        <v>32802</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M9" s="26">
+        <v>42280</v>
+      </c>
+      <c r="N9" s="26">
+        <v>42201</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="7">
-        <v>26343</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="26">
-        <v>42240</v>
-      </c>
-      <c r="M5" s="26">
-        <v>42188</v>
-      </c>
-      <c r="N5" s="16">
-        <v>29110</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="7">
-        <v>33965</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L6" s="26">
-        <v>42277</v>
-      </c>
-      <c r="M6" s="26">
-        <v>42188</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" s="7">
-        <v>18737</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="26">
-        <v>42209</v>
-      </c>
-      <c r="M7" s="26">
-        <v>42191</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G8" s="7">
-        <v>22765</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="L8" s="26">
-        <v>42273</v>
-      </c>
-      <c r="M8" s="26">
-        <v>42198</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G9" s="7">
-        <v>32802</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9" s="26">
-        <v>42280</v>
-      </c>
-      <c r="M9" s="26">
-        <v>42201</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="7">
+        <v>23786</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="26">
+        <v>42412</v>
+      </c>
+      <c r="N10" s="26">
+        <v>42208</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G10" s="7">
-        <v>23786</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="26">
-        <v>42412</v>
-      </c>
-      <c r="M10" s="26">
-        <v>42208</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="7">
+        <v>296</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="7">
         <v>24871</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="26">
-        <v>42220</v>
+      <c r="I11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="M11" s="26">
         <v>42220</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="15" t="s">
+      <c r="N11" s="26">
+        <v>42220</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17827</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="26">
+        <v>42239</v>
+      </c>
+      <c r="N12" s="26">
+        <v>42231</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="7">
+        <v>27605</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="26">
+        <v>42296</v>
+      </c>
+      <c r="N13" s="26">
+        <v>42234</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39645</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" s="26">
+        <v>42255</v>
+      </c>
+      <c r="N14" s="26">
+        <v>42236</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="7">
+        <v>38646</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M15" s="26">
+        <v>42298</v>
+      </c>
+      <c r="N15" s="26">
+        <v>42248</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20984</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="26">
+        <v>42276</v>
+      </c>
+      <c r="N16" s="26">
+        <v>42251</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="7">
+        <v>29458</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="26">
+        <v>42289</v>
+      </c>
+      <c r="N17" s="26">
+        <v>42251</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="7">
+        <v>41392</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="26">
+        <v>42291</v>
+      </c>
+      <c r="N18" s="26">
+        <v>42252</v>
+      </c>
+      <c r="O18" s="16">
+        <v>38917</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27857</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" s="26">
+        <v>42343</v>
+      </c>
+      <c r="N19" s="26">
+        <v>42252</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H20" s="7">
+        <v>41785</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M20" s="26">
+        <v>42313</v>
+      </c>
+      <c r="N20" s="26">
+        <v>42255</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="7">
+        <v>22327</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" s="26">
+        <v>42322</v>
+      </c>
+      <c r="N21" s="26">
+        <v>42256</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="7">
+        <v>42375</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="26">
+        <v>42341</v>
+      </c>
+      <c r="N22" s="26">
+        <v>42274</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="7">
+        <v>24627</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M23" s="26">
+        <v>42286</v>
+      </c>
+      <c r="N23" s="26">
+        <v>42281</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H24" s="7">
+        <v>24573</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="26">
+        <v>42369</v>
+      </c>
+      <c r="N24" s="26">
+        <v>42283</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="7">
+        <v>28403</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M25" s="26">
+        <v>42358</v>
+      </c>
+      <c r="N25" s="26">
+        <v>42294</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="7">
+        <v>37966</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M26" s="26">
+        <v>42303</v>
+      </c>
+      <c r="N26" s="26">
+        <v>42295</v>
+      </c>
+      <c r="O26" s="16">
+        <v>39218</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="7">
+        <v>30916</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M27" s="26">
+        <v>42343</v>
+      </c>
+      <c r="N27" s="26">
+        <v>42302</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" s="7">
+        <v>38973</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" s="26">
+        <v>42659</v>
+      </c>
+      <c r="N28" s="26">
+        <v>42302</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="7">
+        <v>19044</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="26">
+        <v>42372</v>
+      </c>
+      <c r="N29" s="26">
+        <v>42316</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="7">
+        <v>40516</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M30" s="26">
+        <v>42408</v>
+      </c>
+      <c r="N30" s="26">
+        <v>42319</v>
+      </c>
+      <c r="O30" s="16">
+        <v>38129</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" s="7">
+        <v>41266</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M31" s="26">
+        <v>42375</v>
+      </c>
+      <c r="N31" s="26">
+        <v>42320</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" s="7">
+        <v>40305</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" s="26">
+        <v>42350</v>
+      </c>
+      <c r="N32" s="26">
+        <v>42323</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19036</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="26">
+        <v>42389</v>
+      </c>
+      <c r="N33" s="26">
+        <v>42326</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34" s="7">
+        <v>23051</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="26">
+        <v>42369</v>
+      </c>
+      <c r="N34" s="26">
+        <v>42328</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" s="7">
+        <v>23935</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="26">
+        <v>42421</v>
+      </c>
+      <c r="N35" s="26">
+        <v>42336</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H36" s="7">
+        <v>31929</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M36" s="26">
+        <v>42387</v>
+      </c>
+      <c r="N36" s="26">
+        <v>42341</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" s="7">
+        <v>39614</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26">
+        <v>42344</v>
+      </c>
+      <c r="O37" s="16">
+        <v>38092</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H38" s="7">
+        <v>40071</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" s="26">
+        <v>42425</v>
+      </c>
+      <c r="N38" s="26">
+        <v>42345</v>
+      </c>
+      <c r="O38" s="16">
+        <v>38190</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H39" s="7">
+        <v>26569</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" s="26">
+        <v>42418</v>
+      </c>
+      <c r="N39" s="26">
+        <v>42346</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="7">
+        <v>46731</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M40" s="26">
+        <v>42380</v>
+      </c>
+      <c r="N40" s="26">
+        <v>42369</v>
+      </c>
+      <c r="O40" s="16">
+        <v>37703</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H41" s="7">
+        <v>21146</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" s="26">
+        <v>42409</v>
+      </c>
+      <c r="N41" s="26">
+        <v>42371</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="7">
+        <v>18140</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M42" s="26">
+        <v>42402</v>
+      </c>
+      <c r="N42" s="26">
+        <v>42372</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H43" s="7">
+        <v>33567</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M43" s="26">
+        <v>42411</v>
+      </c>
+      <c r="N43" s="26">
+        <v>42372</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H44" s="7">
+        <v>18722</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M44" s="26">
+        <v>42427</v>
+      </c>
+      <c r="N44" s="26">
+        <v>42375</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H45" s="7">
+        <v>23849</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M45" s="26">
+        <v>42429</v>
+      </c>
+      <c r="N45" s="26">
+        <v>42377</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H46" s="7">
+        <v>20794</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26">
+        <v>42383</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" s="7">
+        <v>31726</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M47" s="26">
+        <v>42452</v>
+      </c>
+      <c r="N47" s="26">
+        <v>42392</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" s="7">
+        <v>39384</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M48" s="26">
+        <v>42434</v>
+      </c>
+      <c r="N48" s="26">
+        <v>42396</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H49" s="7">
+        <v>32627</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M49" s="26">
+        <v>42438</v>
+      </c>
+      <c r="N49" s="26">
+        <v>42403</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="20" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H50" s="7">
+        <v>22924</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M50" s="26">
+        <v>42451</v>
+      </c>
+      <c r="N50" s="26">
+        <v>42404</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H51" s="7">
+        <v>24876</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" s="26">
+        <v>42445</v>
+      </c>
+      <c r="N51" s="26">
+        <v>42407</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H52" s="7">
+        <v>22410</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M52" s="26">
+        <v>42410</v>
+      </c>
+      <c r="N52" s="26">
+        <v>42408</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H53" s="7">
+        <v>38319</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M53" s="26">
+        <v>42619</v>
+      </c>
+      <c r="N53" s="26">
+        <v>42415</v>
+      </c>
+      <c r="O53" s="16">
+        <v>37313</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" s="7">
+        <v>30055</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" s="26">
+        <v>42485</v>
+      </c>
+      <c r="N54" s="26">
+        <v>42421</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" s="7">
+        <v>38495</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M55" s="26">
+        <v>42445</v>
+      </c>
+      <c r="N55" s="26">
+        <v>42424</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H56" s="7">
+        <v>27912</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" s="26">
+        <v>42506</v>
+      </c>
+      <c r="N56" s="26">
+        <v>42424</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H57" s="7">
+        <v>28037</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="26">
+        <v>42497</v>
+      </c>
+      <c r="N57" s="26">
+        <v>42425</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="G12" s="7">
-        <v>17827</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L12" s="26">
-        <v>42239</v>
-      </c>
-      <c r="M12" s="26">
-        <v>42231</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="15" t="s">
+      <c r="D58" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H58" s="7">
+        <v>24015</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M58" s="26">
+        <v>42616</v>
+      </c>
+      <c r="N58" s="26">
+        <v>42427</v>
+      </c>
+      <c r="O58" s="16">
+        <v>39433</v>
+      </c>
+      <c r="P58" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" s="7">
-        <v>27605</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L13" s="26">
-        <v>42296</v>
-      </c>
-      <c r="M13" s="26">
-        <v>42234</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="7">
-        <v>39645</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="29" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H59" s="7">
+        <v>22510</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M59" s="26">
+        <v>42457</v>
+      </c>
+      <c r="N59" s="26">
+        <v>42437</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H60" s="7">
+        <v>30164</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M60" s="26">
+        <v>42519</v>
+      </c>
+      <c r="N60" s="26">
+        <v>42438</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H61" s="7">
+        <v>31525</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M61" s="26">
+        <v>42498</v>
+      </c>
+      <c r="N61" s="26">
+        <v>42440</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H62" s="7">
+        <v>31398</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K62" s="23" t="s">
         <v>303</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L14" s="26">
-        <v>42255</v>
-      </c>
-      <c r="M14" s="26">
-        <v>42236</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G15" s="7">
-        <v>38646</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="26">
-        <v>42298</v>
-      </c>
-      <c r="M15" s="26">
-        <v>42248</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="7">
-        <v>20984</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L16" s="26">
-        <v>42276</v>
-      </c>
-      <c r="M16" s="26">
-        <v>42251</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G17" s="7">
-        <v>29458</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="26">
-        <v>42289</v>
-      </c>
-      <c r="M17" s="26">
-        <v>42251</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G18" s="7">
-        <v>41392</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L18" s="26">
-        <v>42291</v>
-      </c>
-      <c r="M18" s="26">
-        <v>42252</v>
-      </c>
-      <c r="N18" s="16">
-        <v>38917</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" s="7">
-        <v>27857</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="26">
-        <v>42343</v>
-      </c>
-      <c r="M19" s="26">
-        <v>42252</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20" s="7">
-        <v>41785</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L20" s="26">
-        <v>42313</v>
-      </c>
-      <c r="M20" s="26">
-        <v>42255</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G21" s="7">
-        <v>22327</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L21" s="26">
-        <v>42322</v>
-      </c>
-      <c r="M21" s="26">
-        <v>42256</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G22" s="7">
-        <v>42375</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="26">
-        <v>42341</v>
-      </c>
-      <c r="M22" s="26">
-        <v>42274</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23" s="7">
-        <v>24627</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L23" s="26">
-        <v>42286</v>
-      </c>
-      <c r="M23" s="26">
-        <v>42281</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="G24" s="7">
-        <v>24573</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="26">
-        <v>42369</v>
-      </c>
-      <c r="M24" s="26">
-        <v>42283</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" s="7">
-        <v>28403</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L25" s="26">
-        <v>42358</v>
-      </c>
-      <c r="M25" s="26">
-        <v>42294</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="G26" s="7">
-        <v>37966</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L26" s="26">
-        <v>42303</v>
-      </c>
-      <c r="M26" s="26">
-        <v>42295</v>
-      </c>
-      <c r="N26" s="16">
-        <v>39218</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G27" s="7">
-        <v>30916</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L27" s="26">
-        <v>42343</v>
-      </c>
-      <c r="M27" s="26">
-        <v>42302</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G28" s="7">
-        <v>38973</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L28" s="26">
-        <v>42659</v>
-      </c>
-      <c r="M28" s="26">
-        <v>42302</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="7">
-        <v>19044</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" s="26">
-        <v>42372</v>
-      </c>
-      <c r="M29" s="26">
-        <v>42316</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G30" s="7">
-        <v>40516</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L30" s="26">
-        <v>42408</v>
-      </c>
-      <c r="M30" s="26">
-        <v>42319</v>
-      </c>
-      <c r="N30" s="16">
-        <v>38129</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" s="7">
-        <v>41266</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L31" s="26">
-        <v>42375</v>
-      </c>
-      <c r="M31" s="26">
-        <v>42320</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G32" s="7">
-        <v>40305</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L32" s="26">
-        <v>42350</v>
-      </c>
-      <c r="M32" s="26">
-        <v>42323</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G33" s="7">
-        <v>19036</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="26">
-        <v>42389</v>
-      </c>
-      <c r="M33" s="26">
-        <v>42326</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="G34" s="7">
-        <v>23051</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L34" s="26">
-        <v>42369</v>
-      </c>
-      <c r="M34" s="26">
-        <v>42328</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" s="7">
-        <v>23935</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="26">
-        <v>42421</v>
-      </c>
-      <c r="M35" s="26">
-        <v>42336</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G36" s="7">
-        <v>31929</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L36" s="26">
-        <v>42387</v>
-      </c>
-      <c r="M36" s="26">
-        <v>42341</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G37" s="7">
-        <v>39614</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26">
-        <v>42344</v>
-      </c>
-      <c r="N37" s="16">
-        <v>38092</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="G38" s="7">
-        <v>40071</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L38" s="26">
-        <v>42425</v>
-      </c>
-      <c r="M38" s="26">
-        <v>42345</v>
-      </c>
-      <c r="N38" s="16">
-        <v>38190</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G39" s="7">
-        <v>26569</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L39" s="26">
-        <v>42418</v>
-      </c>
-      <c r="M39" s="26">
-        <v>42346</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="G40" s="7">
-        <v>46731</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L40" s="26">
-        <v>42380</v>
-      </c>
-      <c r="M40" s="26">
-        <v>42369</v>
-      </c>
-      <c r="N40" s="16">
-        <v>37703</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="G41" s="7">
-        <v>21146</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L41" s="26">
-        <v>42409</v>
-      </c>
-      <c r="M41" s="26">
-        <v>42371</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="G42" s="7">
-        <v>18140</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="L42" s="26">
-        <v>42402</v>
-      </c>
-      <c r="M42" s="26">
-        <v>42372</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G43" s="7">
-        <v>33567</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L43" s="26">
-        <v>42411</v>
-      </c>
-      <c r="M43" s="26">
-        <v>42372</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="G44" s="7">
-        <v>18722</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L44" s="26">
-        <v>42427</v>
-      </c>
-      <c r="M44" s="26">
-        <v>42375</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G45" s="7">
-        <v>23849</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L45" s="26">
-        <v>42429</v>
-      </c>
-      <c r="M45" s="26">
-        <v>42377</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" s="7">
-        <v>20794</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26">
-        <v>42383</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G47" s="7">
-        <v>31726</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L47" s="26">
-        <v>42452</v>
-      </c>
-      <c r="M47" s="26">
-        <v>42392</v>
-      </c>
-      <c r="N47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G48" s="7">
-        <v>39384</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L48" s="26">
-        <v>42434</v>
-      </c>
-      <c r="M48" s="26">
-        <v>42396</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G49" s="7">
-        <v>32627</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L49" s="26">
-        <v>42438</v>
-      </c>
-      <c r="M49" s="26">
-        <v>42403</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G50" s="7">
-        <v>22924</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L50" s="26">
-        <v>42451</v>
-      </c>
-      <c r="M50" s="26">
-        <v>42404</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="O50" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="G51" s="7">
-        <v>24876</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L51" s="26">
-        <v>42445</v>
-      </c>
-      <c r="M51" s="26">
-        <v>42407</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G52" s="7">
-        <v>22410</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L52" s="26">
-        <v>42410</v>
-      </c>
-      <c r="M52" s="26">
-        <v>42408</v>
-      </c>
-      <c r="N52" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G53" s="7">
-        <v>38319</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L53" s="26">
-        <v>42619</v>
-      </c>
-      <c r="M53" s="26">
-        <v>42415</v>
-      </c>
-      <c r="N53" s="16">
-        <v>37313</v>
-      </c>
-      <c r="O53" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="G54" s="7">
-        <v>30055</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L54" s="26">
-        <v>42485</v>
-      </c>
-      <c r="M54" s="26">
-        <v>42421</v>
-      </c>
-      <c r="N54" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G55" s="7">
-        <v>38495</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L55" s="26">
-        <v>42445</v>
-      </c>
-      <c r="M55" s="26">
-        <v>42424</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="O55" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G56" s="7">
-        <v>27912</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L56" s="26">
-        <v>42506</v>
-      </c>
-      <c r="M56" s="26">
-        <v>42424</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="O56" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G57" s="7">
-        <v>28037</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L57" s="26">
-        <v>42497</v>
-      </c>
-      <c r="M57" s="26">
-        <v>42425</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G58" s="7">
-        <v>24015</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L58" s="26">
-        <v>42616</v>
-      </c>
-      <c r="M58" s="26">
-        <v>42427</v>
-      </c>
-      <c r="N58" s="16">
-        <v>39433</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G59" s="7">
-        <v>22510</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L59" s="26">
-        <v>42457</v>
-      </c>
-      <c r="M59" s="26">
-        <v>42437</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O59" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="G60" s="7">
-        <v>30164</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L60" s="26">
-        <v>42519</v>
-      </c>
-      <c r="M60" s="26">
-        <v>42438</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="G61" s="7">
-        <v>31525</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J61" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L61" s="26">
-        <v>42498</v>
-      </c>
-      <c r="M61" s="26">
-        <v>42440</v>
-      </c>
-      <c r="N61" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="G62" s="7">
-        <v>31398</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J62" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L62" s="26">
-        <v>42450</v>
       </c>
       <c r="M62" s="26">
         <v>42450</v>
       </c>
-      <c r="N62" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O62" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N62" s="26">
+        <v>42450</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H63" s="7">
+        <v>29962</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" s="26">
+        <v>42506</v>
+      </c>
+      <c r="N63" s="26">
+        <v>42450</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H64" s="7">
+        <v>20861</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" s="26">
+        <v>42472</v>
+      </c>
+      <c r="N64" s="26">
+        <v>42457</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H65" s="7">
+        <v>28305</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" s="26">
+        <v>42476</v>
+      </c>
+      <c r="N65" s="26">
+        <v>42457</v>
+      </c>
+      <c r="O65" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" s="7">
+        <v>17683</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M66" s="26">
+        <v>42502</v>
+      </c>
+      <c r="N66" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67" s="7">
+        <v>19156</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M67" s="26">
+        <v>42508</v>
+      </c>
+      <c r="N67" s="26">
+        <v>42459</v>
+      </c>
+      <c r="O67" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="E68" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" s="7">
+        <v>38126</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M68" s="26">
+        <v>42505</v>
+      </c>
+      <c r="N68" s="26">
+        <v>42461</v>
+      </c>
+      <c r="O68" s="16">
+        <v>38577</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H69" s="7">
+        <v>39717</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M69" s="26">
+        <v>42523</v>
+      </c>
+      <c r="N69" s="26">
+        <v>42465</v>
+      </c>
+      <c r="O69" s="16">
+        <v>38644</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H70" s="7">
+        <v>33191</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M70" s="26">
+        <v>42531</v>
+      </c>
+      <c r="N70" s="26">
+        <v>42469</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71" s="7">
+        <v>22739</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M71" s="26">
+        <v>42559</v>
+      </c>
+      <c r="N71" s="26">
+        <v>42475</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H72" s="7">
+        <v>29633</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M72" s="26">
+        <v>42486</v>
+      </c>
+      <c r="N72" s="26">
+        <v>42478</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H73" s="7">
+        <v>24451</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M73" s="26">
+        <v>42551</v>
+      </c>
+      <c r="N73" s="26">
+        <v>42479</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="7">
-        <v>29962</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I63" s="29" t="s">
+      <c r="F74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H74" s="7">
+        <v>25773</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M74" s="26">
+        <v>42499</v>
+      </c>
+      <c r="N74" s="26">
+        <v>42480</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H75" s="7">
+        <v>29414</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M75" s="26">
+        <v>42535</v>
+      </c>
+      <c r="N75" s="26">
+        <v>42480</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H76" s="7">
+        <v>27902</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M76" s="26">
+        <v>42552</v>
+      </c>
+      <c r="N76" s="26">
+        <v>42480</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H77" s="9">
+        <v>40538</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J77" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="K77" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M77" s="26">
+        <v>42568</v>
+      </c>
+      <c r="N77" s="26">
+        <v>42482</v>
+      </c>
+      <c r="O77" s="16">
+        <v>37557</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H78" s="7">
+        <v>26952</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26">
+        <v>42485</v>
+      </c>
+      <c r="O78" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H79" s="7">
+        <v>26789</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" s="26">
+        <v>42535</v>
+      </c>
+      <c r="N79" s="26">
+        <v>42487</v>
+      </c>
+      <c r="O79" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H80" s="7">
+        <v>31984</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K80" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="L63" s="26">
+      <c r="M80" s="26">
+        <v>42559</v>
+      </c>
+      <c r="N80" s="26">
+        <v>42489</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H81" s="7">
+        <v>31658</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K81" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M81" s="26">
+        <v>42525</v>
+      </c>
+      <c r="N81" s="26">
+        <v>42494</v>
+      </c>
+      <c r="O81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H82" s="7">
+        <v>18470</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M82" s="26">
+        <v>42545</v>
+      </c>
+      <c r="N82" s="26">
+        <v>42495</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K83" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M83" s="26">
+        <v>42539</v>
+      </c>
+      <c r="N83" s="26">
         <v>42506</v>
       </c>
-      <c r="M63" s="26">
-        <v>42450</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O63" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="O83" s="16">
+        <v>37735</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H84" s="7">
+        <v>22604</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M84" s="26">
+        <v>42606</v>
+      </c>
+      <c r="N84" s="26">
+        <v>42514</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="E85" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H85" s="7">
+        <v>27037</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M85" s="26">
+        <v>42563</v>
+      </c>
+      <c r="N85" s="26">
+        <v>42517</v>
+      </c>
+      <c r="O85" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H86" s="7">
+        <v>25703</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M86" s="26">
+        <v>42530</v>
+      </c>
+      <c r="N86" s="26">
+        <v>42528</v>
+      </c>
+      <c r="O86" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" s="7">
+        <v>25561</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26">
+        <v>42538</v>
+      </c>
+      <c r="O87" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H88" s="7">
+        <v>29091</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M88" s="26">
+        <v>42608</v>
+      </c>
+      <c r="N88" s="26">
+        <v>42538</v>
+      </c>
+      <c r="O88" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H89" s="7">
+        <v>28516</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M89" s="26">
+        <v>42574</v>
+      </c>
+      <c r="N89" s="26">
+        <v>42541</v>
+      </c>
+      <c r="O89" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G64" s="7">
-        <v>20861</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I64" s="29" t="s">
+      <c r="F90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H90" s="7">
+        <v>31784</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M90" s="26">
+        <v>42615</v>
+      </c>
+      <c r="N90" s="26">
+        <v>42543</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H91" s="9">
+        <v>40754</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J91" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="K91" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M91" s="26">
+        <v>42615</v>
+      </c>
+      <c r="N91" s="26">
+        <v>42544</v>
+      </c>
+      <c r="O91" s="16">
+        <v>39233</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H92" s="7">
+        <v>38861</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J92" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M92" s="26">
+        <v>42568</v>
+      </c>
+      <c r="N92" s="26">
+        <v>42545</v>
+      </c>
+      <c r="O92" s="16">
+        <v>37706</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" s="7">
+        <v>32642</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K93" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="L64" s="26">
-        <v>42472</v>
-      </c>
-      <c r="M64" s="26">
-        <v>42457</v>
-      </c>
-      <c r="N64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="M93" s="26">
+        <v>42567</v>
+      </c>
+      <c r="N93" s="26">
+        <v>42548</v>
+      </c>
+      <c r="O93" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="H94" s="7">
+        <v>25481</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M94" s="26">
+        <v>42635</v>
+      </c>
+      <c r="N94" s="26">
+        <v>42558</v>
+      </c>
+      <c r="O94" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="G65" s="7">
-        <v>28305</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I65" s="29" t="s">
+      <c r="E95" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H95" s="7">
+        <v>38277</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J95" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="23" t="s">
+      <c r="K95" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26">
+        <v>42568</v>
+      </c>
+      <c r="O95" s="16">
+        <v>38558</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H96" s="7">
+        <v>17738</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M96" s="26">
+        <v>42615</v>
+      </c>
+      <c r="N96" s="26">
+        <v>42568</v>
+      </c>
+      <c r="O96" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H97" s="7">
+        <v>38551</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M97" s="26">
+        <v>42660</v>
+      </c>
+      <c r="N97" s="26">
+        <v>42571</v>
+      </c>
+      <c r="O97" s="16">
+        <v>37969</v>
+      </c>
+      <c r="P97" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H98" s="7">
+        <v>23209</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K98" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="L65" s="26">
-        <v>42476</v>
-      </c>
-      <c r="M65" s="26">
-        <v>42457</v>
-      </c>
-      <c r="N65" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="O65" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G66" s="7">
-        <v>17683</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J66" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L66" s="26">
-        <v>42502</v>
-      </c>
-      <c r="M66" s="26">
-        <v>42458</v>
-      </c>
-      <c r="N66" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O66" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G67" s="7">
-        <v>19156</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L67" s="26">
-        <v>42508</v>
-      </c>
-      <c r="M67" s="26">
-        <v>42459</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G68" s="7">
-        <v>38126</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I68" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L68" s="26">
-        <v>42505</v>
-      </c>
-      <c r="M68" s="26">
-        <v>42461</v>
-      </c>
-      <c r="N68" s="16">
-        <v>38577</v>
-      </c>
-      <c r="O68" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G69" s="7">
-        <v>39717</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L69" s="26">
-        <v>42523</v>
-      </c>
-      <c r="M69" s="26">
-        <v>42465</v>
-      </c>
-      <c r="N69" s="16">
-        <v>38644</v>
-      </c>
-      <c r="O69" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G70" s="7">
-        <v>33191</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J70" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="L70" s="26">
-        <v>42531</v>
-      </c>
-      <c r="M70" s="26">
-        <v>42469</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O70" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G71" s="7">
-        <v>22739</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J71" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L71" s="26">
-        <v>42559</v>
-      </c>
-      <c r="M71" s="26">
-        <v>42475</v>
-      </c>
-      <c r="N71" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O71" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G72" s="7">
-        <v>29633</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="L72" s="26">
-        <v>42486</v>
-      </c>
-      <c r="M72" s="26">
-        <v>42478</v>
-      </c>
-      <c r="N72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O72" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G73" s="7">
-        <v>24451</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J73" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L73" s="26">
-        <v>42551</v>
-      </c>
-      <c r="M73" s="26">
-        <v>42479</v>
-      </c>
-      <c r="N73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O73" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G74" s="7">
-        <v>25773</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J74" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="L74" s="26">
-        <v>42499</v>
-      </c>
-      <c r="M74" s="26">
-        <v>42480</v>
-      </c>
-      <c r="N74" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O74" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G75" s="7">
-        <v>29414</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J75" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L75" s="26">
-        <v>42535</v>
-      </c>
-      <c r="M75" s="26">
-        <v>42480</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G76" s="7">
-        <v>27902</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L76" s="26">
-        <v>42552</v>
-      </c>
-      <c r="M76" s="26">
-        <v>42480</v>
-      </c>
-      <c r="N76" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="O76" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G77" s="9">
-        <v>40538</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I77" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J77" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L77" s="26">
-        <v>42568</v>
-      </c>
-      <c r="M77" s="26">
-        <v>42482</v>
-      </c>
-      <c r="N77" s="16">
-        <v>37557</v>
-      </c>
-      <c r="O77" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G78" s="7">
-        <v>26952</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26">
-        <v>42485</v>
-      </c>
-      <c r="N78" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O78" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="7">
-        <v>26789</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L79" s="26">
-        <v>42535</v>
-      </c>
-      <c r="M79" s="26">
-        <v>42487</v>
-      </c>
-      <c r="N79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O79" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G80" s="7">
-        <v>31984</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J80" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L80" s="26">
-        <v>42559</v>
-      </c>
-      <c r="M80" s="26">
-        <v>42489</v>
-      </c>
-      <c r="N80" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="O80" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G81" s="7">
-        <v>31658</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I81" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J81" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L81" s="26">
-        <v>42525</v>
-      </c>
-      <c r="M81" s="26">
-        <v>42494</v>
-      </c>
-      <c r="N81" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O81" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G82" s="7">
-        <v>18470</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I82" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J82" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L82" s="26">
-        <v>42545</v>
-      </c>
-      <c r="M82" s="26">
-        <v>42495</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="O82" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I83" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J83" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L83" s="26">
-        <v>42539</v>
-      </c>
-      <c r="M83" s="26">
-        <v>42506</v>
-      </c>
-      <c r="N83" s="16">
-        <v>37735</v>
-      </c>
-      <c r="O83" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G84" s="7">
-        <v>22604</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I84" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="L84" s="26">
-        <v>42606</v>
-      </c>
-      <c r="M84" s="26">
-        <v>42514</v>
-      </c>
-      <c r="N84" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O84" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G85" s="7">
-        <v>27037</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I85" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J85" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L85" s="26">
-        <v>42563</v>
-      </c>
-      <c r="M85" s="26">
-        <v>42517</v>
-      </c>
-      <c r="N85" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O85" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G86" s="7">
-        <v>25703</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I86" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J86" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L86" s="26">
-        <v>42530</v>
-      </c>
-      <c r="M86" s="26">
-        <v>42528</v>
-      </c>
-      <c r="N86" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O86" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G87" s="7">
-        <v>25561</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26">
-        <v>42538</v>
-      </c>
-      <c r="N87" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="O87" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G88" s="7">
-        <v>29091</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="J88" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L88" s="26">
-        <v>42608</v>
-      </c>
-      <c r="M88" s="26">
-        <v>42538</v>
-      </c>
-      <c r="N88" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="O88" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G89" s="7">
-        <v>28516</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I89" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J89" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L89" s="26">
-        <v>42574</v>
-      </c>
-      <c r="M89" s="26">
-        <v>42541</v>
-      </c>
-      <c r="N89" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O89" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G90" s="7">
-        <v>31784</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I90" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J90" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="L90" s="26">
-        <v>42615</v>
-      </c>
-      <c r="M90" s="26">
-        <v>42543</v>
-      </c>
-      <c r="N90" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G91" s="9">
-        <v>40754</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J91" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L91" s="26">
-        <v>42615</v>
-      </c>
-      <c r="M91" s="26">
-        <v>42544</v>
-      </c>
-      <c r="N91" s="16">
-        <v>39233</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="G92" s="7">
-        <v>38861</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I92" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J92" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L92" s="26">
-        <v>42568</v>
-      </c>
-      <c r="M92" s="26">
-        <v>42545</v>
-      </c>
-      <c r="N92" s="16">
-        <v>37706</v>
-      </c>
-      <c r="O92" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="G93" s="7">
-        <v>32642</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L93" s="26">
-        <v>42567</v>
-      </c>
-      <c r="M93" s="26">
-        <v>42548</v>
-      </c>
-      <c r="N93" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O93" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G94" s="7">
-        <v>25481</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J94" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L94" s="26">
-        <v>42635</v>
-      </c>
-      <c r="M94" s="26">
-        <v>42558</v>
-      </c>
-      <c r="N94" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O94" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G95" s="7">
-        <v>38277</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="I95" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26">
-        <v>42568</v>
-      </c>
-      <c r="N95" s="16">
-        <v>38558</v>
-      </c>
-      <c r="O95" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G96" s="7">
-        <v>17738</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I96" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J96" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L96" s="26">
-        <v>42615</v>
-      </c>
-      <c r="M96" s="26">
-        <v>42568</v>
-      </c>
-      <c r="N96" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="O96" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G97" s="7">
-        <v>38551</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L97" s="26">
-        <v>42660</v>
-      </c>
-      <c r="M97" s="26">
-        <v>42571</v>
-      </c>
-      <c r="N97" s="16">
-        <v>37969</v>
-      </c>
-      <c r="O97" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G98" s="7">
-        <v>23209</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I98" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J98" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L98" s="26">
-        <v>42574</v>
       </c>
       <c r="M98" s="26">
         <v>42574</v>
       </c>
-      <c r="N98" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O98" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N98" s="26">
+        <v>42574</v>
+      </c>
+      <c r="O98" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P98" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C99" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H99" s="7">
+        <v>38948</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J99" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K99" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M99" s="26">
+        <v>42659</v>
+      </c>
+      <c r="N99" s="26">
+        <v>42575</v>
+      </c>
+      <c r="O99" s="16">
+        <v>39433</v>
+      </c>
+      <c r="P99" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H100" s="7">
+        <v>25382</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J100" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K100" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M100" s="26">
+        <v>42636</v>
+      </c>
+      <c r="N100" s="26">
+        <v>42577</v>
+      </c>
+      <c r="O100" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P100" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="E101" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H101" s="7">
+        <v>27675</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K101" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26">
+        <v>42578</v>
+      </c>
+      <c r="O101" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H102" s="7">
+        <v>29803</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J102" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K102" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M102" s="26">
+        <v>42606</v>
+      </c>
+      <c r="N102" s="26">
+        <v>42592</v>
+      </c>
+      <c r="O102" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P102" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H103" s="7">
+        <v>19223</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="K103" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M103" s="26">
+        <v>42636</v>
+      </c>
+      <c r="N103" s="26">
+        <v>42594</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G99" s="7">
-        <v>38948</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I99" s="29" t="s">
+      <c r="F104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" s="7">
+        <v>33711</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J104" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="J99" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="L99" s="26">
-        <v>42659</v>
-      </c>
-      <c r="M99" s="26">
-        <v>42575</v>
-      </c>
-      <c r="N99" s="16">
-        <v>39433</v>
-      </c>
-      <c r="O99" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="G100" s="7">
-        <v>25382</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J100" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L100" s="26">
-        <v>42636</v>
-      </c>
-      <c r="M100" s="26">
-        <v>42577</v>
-      </c>
-      <c r="N100" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="O100" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="G101" s="7">
-        <v>27675</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I101" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J101" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26">
-        <v>42578</v>
-      </c>
-      <c r="N101" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="O101" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="G102" s="7">
-        <v>29803</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J102" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L102" s="26">
-        <v>42606</v>
-      </c>
-      <c r="M102" s="26">
-        <v>42592</v>
-      </c>
-      <c r="N102" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O102" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G103" s="7">
-        <v>19223</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J103" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L103" s="26">
-        <v>42636</v>
-      </c>
-      <c r="M103" s="26">
-        <v>42594</v>
-      </c>
-      <c r="N103" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="O103" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="K104" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M104" s="26">
+        <v>42645</v>
+      </c>
+      <c r="N104" s="26">
+        <v>42595</v>
+      </c>
+      <c r="O104" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G104" s="7">
-        <v>33711</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I104" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="J104" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L104" s="26">
-        <v>42645</v>
-      </c>
-      <c r="M104" s="26">
-        <v>42595</v>
-      </c>
-      <c r="N104" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O104" s="15" t="s">
-        <v>294</v>
+      <c r="P104" s="15" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O104">
-    <sortCondition ref="L5:L104"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P104">
+    <sortCondition ref="M5:M104"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="12">
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARA DATA Wait Lists Feb 2021.xlsx
+++ b/ARA DATA Wait Lists Feb 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/grc0396_arastudent_ac_nz/Documents/Database/Assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{5DD289D1-F4B3-4DC7-AB69-30A8261AB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F7F53E-4188-45F3-86C6-69622900BDA5}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{5DD289D1-F4B3-4DC7-AB69-30A8261AB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219435E2-408E-43F3-B84C-ADFAD8DAD072}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-240" yWindow="0" windowWidth="51840" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2596,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8550,10 +8580,10 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:O103 N4:N102">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8566,7 +8596,7 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8641,100 +8671,100 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="41">
-        <v>42187</v>
+        <v>42251</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E3" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="57">
-        <v>42277</v>
+        <v>42289</v>
       </c>
       <c r="I3" s="57">
-        <v>42188</v>
+        <v>42251</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="41">
-        <v>42189</v>
+        <v>42250</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E4" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="57">
-        <v>42209</v>
+        <v>42343</v>
       </c>
       <c r="I4" s="57">
-        <v>42191</v>
+        <v>42252</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" s="41">
-        <v>42196</v>
+        <v>42271</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E5" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G5" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="57">
-        <v>42273</v>
+        <v>42341</v>
       </c>
       <c r="I5" s="57">
-        <v>42198</v>
+        <v>42274</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" s="41">
-        <v>42198</v>
+        <v>42316</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>318</v>
@@ -8743,236 +8773,236 @@
         <v>1</v>
       </c>
       <c r="F6" s="25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="57">
-        <v>42280</v>
+        <v>42372</v>
       </c>
       <c r="I6" s="57">
-        <v>42201</v>
+        <v>42316</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B7" s="41">
-        <v>42205</v>
+        <v>42325</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E7" s="40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="57">
-        <v>42412</v>
+        <v>42389</v>
       </c>
       <c r="I7" s="57">
-        <v>42208</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="41">
-        <v>42219</v>
+        <v>42325</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E8" s="40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G8" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="57">
-        <v>42220</v>
+        <v>42369</v>
       </c>
       <c r="I8" s="57">
-        <v>42220</v>
+        <v>42328</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" s="41">
-        <v>42231</v>
+        <v>42333</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E9" s="40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="57">
-        <v>42239</v>
+        <v>42421</v>
       </c>
       <c r="I9" s="57">
-        <v>42231</v>
+        <v>42336</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10" s="41">
-        <v>42233</v>
+        <v>42340</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E10" s="40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G10" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="57">
-        <v>42296</v>
+        <v>42387</v>
       </c>
       <c r="I10" s="57">
-        <v>42234</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" s="41">
-        <v>42234</v>
+        <v>42375</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E11" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="57">
-        <v>42255</v>
+        <v>42429</v>
       </c>
       <c r="I11" s="57">
-        <v>42236</v>
+        <v>42377</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B12" s="41">
-        <v>42248</v>
+        <v>42391</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E12" s="40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" s="25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="57">
-        <v>42298</v>
+        <v>42452</v>
       </c>
       <c r="I12" s="57">
-        <v>42248</v>
+        <v>42392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B13" s="41">
-        <v>42250</v>
+        <v>42424</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E13" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="57">
-        <v>42276</v>
+        <v>42497</v>
       </c>
       <c r="I13" s="57">
-        <v>42251</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B14" s="41">
-        <v>42251</v>
+        <v>42434</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>437</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E14" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="25">
         <v>9</v>
@@ -8981,50 +9011,50 @@
         <v>1</v>
       </c>
       <c r="H14" s="57">
-        <v>42289</v>
+        <v>42457</v>
       </c>
       <c r="I14" s="57">
-        <v>42251</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B15" s="41">
-        <v>42250</v>
+        <v>42457</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E15" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="57">
-        <v>42291</v>
+        <v>42508</v>
       </c>
       <c r="I15" s="57">
-        <v>42252</v>
+        <v>42459</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B16" s="41">
-        <v>42250</v>
+        <v>42478</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>318</v>
@@ -9033,864 +9063,862 @@
         <v>8</v>
       </c>
       <c r="F16" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G16" s="20">
         <v>1</v>
       </c>
       <c r="H16" s="57">
-        <v>42343</v>
+        <v>42551</v>
       </c>
       <c r="I16" s="57">
-        <v>42252</v>
+        <v>42479</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B17" s="41">
-        <v>42253</v>
+        <v>42482</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E17" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="20">
-        <v>5</v>
-      </c>
-      <c r="H17" s="57">
-        <v>42313</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" s="57"/>
       <c r="I17" s="57">
-        <v>42255</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B18" s="41">
-        <v>42254</v>
+        <v>42516</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E18" s="40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" s="25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="57">
-        <v>42322</v>
+        <v>42563</v>
       </c>
       <c r="I18" s="57">
-        <v>42256</v>
+        <v>42517</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" s="41">
-        <v>42271</v>
+        <v>42539</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E19" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" s="25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="20">
         <v>1</v>
       </c>
       <c r="H19" s="57">
-        <v>42341</v>
+        <v>42574</v>
       </c>
       <c r="I19" s="57">
-        <v>42274</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B20" s="41">
-        <v>42279</v>
+        <v>42566</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E20" s="40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="57">
-        <v>42286</v>
+        <v>42615</v>
       </c>
       <c r="I20" s="57">
-        <v>42281</v>
+        <v>42568</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B21" s="41">
-        <v>42282</v>
+        <v>42574</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E21" s="40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G21" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="57">
-        <v>42369</v>
+        <v>42636</v>
       </c>
       <c r="I21" s="57">
-        <v>42283</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B22" s="41">
-        <v>42291</v>
+        <v>42591</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E22" s="40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G22" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="57">
-        <v>42358</v>
+        <v>42636</v>
       </c>
       <c r="I22" s="57">
-        <v>42294</v>
+        <v>42594</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" s="41">
-        <v>42293</v>
+        <v>42187</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E23" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G23" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="57">
-        <v>42303</v>
+        <v>42277</v>
       </c>
       <c r="I23" s="57">
-        <v>42295</v>
+        <v>42188</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" s="41">
-        <v>42300</v>
+        <v>42189</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E24" s="40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="57">
-        <v>42343</v>
+        <v>42209</v>
       </c>
       <c r="I24" s="57">
-        <v>42302</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B25" s="41">
-        <v>42301</v>
+        <v>42231</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E25" s="40">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F25" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="57">
-        <v>42659</v>
+        <v>42239</v>
       </c>
       <c r="I25" s="57">
-        <v>42302</v>
+        <v>42231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B26" s="41">
-        <v>42316</v>
+        <v>42233</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E26" s="40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G26" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="57">
-        <v>42372</v>
+        <v>42296</v>
       </c>
       <c r="I26" s="57">
-        <v>42316</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" s="41">
-        <v>42317</v>
+        <v>42282</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E27" s="40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="57">
-        <v>42408</v>
+        <v>42369</v>
       </c>
       <c r="I27" s="57">
-        <v>42319</v>
+        <v>42283</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B28" s="41">
-        <v>42318</v>
+        <v>42369</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E28" s="40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" s="25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G28" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="57">
-        <v>42375</v>
+        <v>42411</v>
       </c>
       <c r="I28" s="57">
-        <v>42320</v>
+        <v>42372</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29" s="41">
-        <v>42323</v>
+        <v>42373</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E29" s="40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G29" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="57">
-        <v>42350</v>
+        <v>42427</v>
       </c>
       <c r="I29" s="57">
-        <v>42323</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B30" s="41">
-        <v>42325</v>
+        <v>42381</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E30" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" s="25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G30" s="20">
-        <v>1</v>
-      </c>
-      <c r="H30" s="57">
-        <v>42389</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" s="57"/>
       <c r="I30" s="57">
-        <v>42326</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B31" s="41">
-        <v>42325</v>
+        <v>42401</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E31" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="57">
-        <v>42369</v>
+        <v>42451</v>
       </c>
       <c r="I31" s="57">
-        <v>42328</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B32" s="41">
-        <v>42333</v>
+        <v>42405</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E32" s="40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="57">
-        <v>42421</v>
+        <v>42445</v>
       </c>
       <c r="I32" s="57">
-        <v>42336</v>
+        <v>42407</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B33" s="41">
-        <v>42340</v>
+        <v>42407</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E33" s="40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F33" s="25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G33" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="57">
-        <v>42387</v>
+        <v>42410</v>
       </c>
       <c r="I33" s="57">
-        <v>42341</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B34" s="41">
-        <v>42343</v>
+        <v>42420</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E34" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G34" s="20">
-        <v>5</v>
-      </c>
-      <c r="H34" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="57">
+        <v>42485</v>
+      </c>
       <c r="I34" s="57">
-        <v>42344</v>
+        <v>42421</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B35" s="41">
-        <v>42343</v>
+        <v>42421</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E35" s="40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G35" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="57">
-        <v>42425</v>
+        <v>42506</v>
       </c>
       <c r="I35" s="57">
-        <v>42345</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B36" s="41">
-        <v>42346</v>
+        <v>42449</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E36" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="57">
-        <v>42418</v>
+        <v>42506</v>
       </c>
       <c r="I36" s="57">
-        <v>42346</v>
+        <v>42450</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B37" s="41">
-        <v>42371</v>
+        <v>42454</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E37" s="40">
+        <v>6</v>
+      </c>
+      <c r="F37" s="25">
         <v>2</v>
       </c>
-      <c r="F37" s="25">
-        <v>5</v>
-      </c>
       <c r="G37" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="57">
-        <v>42409</v>
+        <v>42472</v>
       </c>
       <c r="I37" s="57">
-        <v>42371</v>
+        <v>42457</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B38" s="41">
-        <v>42372</v>
+        <v>42457</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E38" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G38" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" s="57">
-        <v>42402</v>
+        <v>42476</v>
       </c>
       <c r="I38" s="57">
-        <v>42372</v>
+        <v>42457</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B39" s="41">
-        <v>42369</v>
+        <v>42472</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E39" s="40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39" s="25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G39" s="20">
         <v>2</v>
       </c>
       <c r="H39" s="57">
-        <v>42411</v>
+        <v>42559</v>
       </c>
       <c r="I39" s="57">
-        <v>42372</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B40" s="41">
-        <v>42373</v>
+        <v>42479</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E40" s="40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" s="25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G40" s="20">
         <v>2</v>
       </c>
       <c r="H40" s="57">
-        <v>42427</v>
+        <v>42535</v>
       </c>
       <c r="I40" s="57">
-        <v>42375</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B41" s="41">
-        <v>42375</v>
+        <v>42478</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E41" s="40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" s="25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G41" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="57">
-        <v>42429</v>
+        <v>42552</v>
       </c>
       <c r="I41" s="57">
-        <v>42377</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B42" s="41">
-        <v>42381</v>
+        <v>42486</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E42" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" s="25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G42" s="20">
         <v>2</v>
       </c>
-      <c r="H42" s="57"/>
+      <c r="H42" s="57">
+        <v>42535</v>
+      </c>
       <c r="I42" s="57">
-        <v>42383</v>
+        <v>42487</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B43" s="41">
-        <v>42391</v>
+        <v>42488</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E43" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F43" s="25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G43" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="57">
-        <v>42452</v>
+        <v>42559</v>
       </c>
       <c r="I43" s="57">
-        <v>42392</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B44" s="41">
-        <v>42393</v>
+        <v>42494</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E44" s="40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F44" s="25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G44" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" s="57">
-        <v>42434</v>
+        <v>42525</v>
       </c>
       <c r="I44" s="57">
-        <v>42396</v>
+        <v>42494</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B45" s="41">
-        <v>42402</v>
+        <v>42536</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E45" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45" s="20">
-        <v>3</v>
-      </c>
-      <c r="H45" s="57">
-        <v>42438</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="57"/>
       <c r="I45" s="57">
-        <v>42403</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B46" s="41">
-        <v>42401</v>
+        <v>42546</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>318</v>
@@ -9905,288 +9933,286 @@
         <v>2</v>
       </c>
       <c r="H46" s="57">
-        <v>42451</v>
+        <v>42567</v>
       </c>
       <c r="I46" s="57">
-        <v>42404</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B47" s="41">
-        <v>42405</v>
+        <v>42558</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E47" s="40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F47" s="25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G47" s="20">
         <v>2</v>
       </c>
       <c r="H47" s="57">
-        <v>42445</v>
+        <v>42635</v>
       </c>
       <c r="I47" s="57">
-        <v>42407</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B48" s="41">
-        <v>42407</v>
+        <v>42572</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E48" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" s="25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G48" s="20">
         <v>2</v>
       </c>
       <c r="H48" s="57">
-        <v>42410</v>
+        <v>42574</v>
       </c>
       <c r="I48" s="57">
-        <v>42408</v>
+        <v>42574</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B49" s="41">
-        <v>42414</v>
+        <v>42578</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E49" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" s="25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="20">
-        <v>5</v>
-      </c>
-      <c r="H49" s="57">
-        <v>42619</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="57"/>
       <c r="I49" s="57">
-        <v>42415</v>
+        <v>42578</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B50" s="41">
-        <v>42420</v>
+        <v>42196</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E50" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="25">
+        <v>4</v>
+      </c>
+      <c r="G50" s="20">
         <v>3</v>
       </c>
-      <c r="G50" s="20">
-        <v>2</v>
-      </c>
       <c r="H50" s="57">
-        <v>42485</v>
+        <v>42273</v>
       </c>
       <c r="I50" s="57">
-        <v>42421</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B51" s="41">
-        <v>42424</v>
+        <v>42198</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E51" s="40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F51" s="25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G51" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" s="57">
-        <v>42445</v>
+        <v>42280</v>
       </c>
       <c r="I51" s="57">
-        <v>42424</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B52" s="41">
-        <v>42421</v>
+        <v>42234</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E52" s="40">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F52" s="25">
+        <v>7</v>
+      </c>
+      <c r="G52" s="20">
         <v>3</v>
       </c>
-      <c r="G52" s="20">
-        <v>2</v>
-      </c>
       <c r="H52" s="57">
-        <v>42506</v>
+        <v>42255</v>
       </c>
       <c r="I52" s="57">
-        <v>42424</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B53" s="41">
-        <v>42424</v>
+        <v>42250</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E53" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G53" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" s="57">
-        <v>42497</v>
+        <v>42276</v>
       </c>
       <c r="I53" s="57">
-        <v>42425</v>
+        <v>42251</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B54" s="41">
-        <v>42426</v>
+        <v>42254</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E54" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G54" s="20">
         <v>3</v>
       </c>
       <c r="H54" s="57">
-        <v>42616</v>
+        <v>42322</v>
       </c>
       <c r="I54" s="57">
-        <v>42427</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B55" s="41">
-        <v>42434</v>
+        <v>42291</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E55" s="40">
+        <v>4</v>
+      </c>
+      <c r="F55" s="25">
         <v>7</v>
       </c>
-      <c r="F55" s="25">
-        <v>9</v>
-      </c>
       <c r="G55" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="57">
-        <v>42457</v>
+        <v>42358</v>
       </c>
       <c r="I55" s="57">
-        <v>42437</v>
+        <v>42294</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B56" s="41">
-        <v>42438</v>
+        <v>42300</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E56" s="40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F56" s="25">
         <v>5</v>
@@ -10195,166 +10221,166 @@
         <v>3</v>
       </c>
       <c r="H56" s="57">
-        <v>42519</v>
+        <v>42343</v>
       </c>
       <c r="I56" s="57">
-        <v>42438</v>
+        <v>42302</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B57" s="41">
-        <v>42437</v>
+        <v>42346</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E57" s="40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="57">
-        <v>42498</v>
+        <v>42418</v>
       </c>
       <c r="I57" s="57">
-        <v>42440</v>
+        <v>42346</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B58" s="41">
-        <v>42449</v>
+        <v>42371</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E58" s="40">
+        <v>2</v>
+      </c>
+      <c r="F58" s="25">
         <v>5</v>
       </c>
-      <c r="F58" s="25">
-        <v>12</v>
-      </c>
       <c r="G58" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="57">
-        <v>42450</v>
+        <v>42409</v>
       </c>
       <c r="I58" s="57">
-        <v>42450</v>
+        <v>42371</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B59" s="41">
-        <v>42449</v>
+        <v>42402</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E59" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="25">
+        <v>7</v>
+      </c>
+      <c r="G59" s="20">
         <v>3</v>
       </c>
-      <c r="G59" s="20">
-        <v>2</v>
-      </c>
       <c r="H59" s="57">
-        <v>42506</v>
+        <v>42438</v>
       </c>
       <c r="I59" s="57">
-        <v>42450</v>
+        <v>42403</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B60" s="41">
-        <v>42454</v>
+        <v>42426</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E60" s="40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G60" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="57">
-        <v>42472</v>
+        <v>42616</v>
       </c>
       <c r="I60" s="57">
-        <v>42457</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B61" s="41">
-        <v>42457</v>
+        <v>42438</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E61" s="40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F61" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="57">
-        <v>42476</v>
+        <v>42519</v>
       </c>
       <c r="I61" s="57">
-        <v>42457</v>
+        <v>42438</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B62" s="41">
-        <v>42455</v>
+        <v>42476</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>318</v>
@@ -10363,27 +10389,27 @@
         <v>3</v>
       </c>
       <c r="F62" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="57">
-        <v>42502</v>
+        <v>42486</v>
       </c>
       <c r="I62" s="57">
-        <v>42458</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B63" s="41">
-        <v>42457</v>
+        <v>42478</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>318</v>
@@ -10392,288 +10418,288 @@
         <v>7</v>
       </c>
       <c r="F63" s="25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G63" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="57">
-        <v>42508</v>
+        <v>42499</v>
       </c>
       <c r="I63" s="57">
-        <v>42459</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B64" s="41">
-        <v>42458</v>
+        <v>42537</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E64" s="40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64" s="25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G64" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" s="57">
-        <v>42505</v>
+        <v>42608</v>
       </c>
       <c r="I64" s="57">
-        <v>42461</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B65" s="41">
-        <v>42464</v>
+        <v>42205</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E65" s="40">
         <v>4</v>
       </c>
       <c r="F65" s="25">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G65" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="57">
-        <v>42523</v>
+        <v>42412</v>
       </c>
       <c r="I65" s="57">
-        <v>42465</v>
+        <v>42208</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B66" s="41">
-        <v>42469</v>
+        <v>42219</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E66" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F66" s="25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G66" s="20">
         <v>4</v>
       </c>
       <c r="H66" s="57">
-        <v>42531</v>
+        <v>42220</v>
       </c>
       <c r="I66" s="57">
-        <v>42469</v>
+        <v>42220</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B67" s="41">
-        <v>42472</v>
+        <v>42279</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E67" s="40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" s="25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="57">
-        <v>42559</v>
+        <v>42286</v>
       </c>
       <c r="I67" s="57">
-        <v>42475</v>
+        <v>42281</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B68" s="41">
-        <v>42476</v>
+        <v>42323</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E68" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" s="25">
+        <v>12</v>
+      </c>
+      <c r="G68" s="20">
         <v>4</v>
       </c>
-      <c r="G68" s="20">
-        <v>3</v>
-      </c>
       <c r="H68" s="57">
-        <v>42486</v>
+        <v>42350</v>
       </c>
       <c r="I68" s="57">
-        <v>42478</v>
+        <v>42323</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B69" s="41">
-        <v>42478</v>
+        <v>42372</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E69" s="40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G69" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="57">
-        <v>42551</v>
+        <v>42402</v>
       </c>
       <c r="I69" s="57">
-        <v>42479</v>
+        <v>42372</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B70" s="41">
-        <v>42478</v>
+        <v>42437</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E70" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="25">
+        <v>6</v>
+      </c>
+      <c r="G70" s="20">
         <v>4</v>
       </c>
-      <c r="G70" s="20">
-        <v>3</v>
-      </c>
       <c r="H70" s="57">
-        <v>42499</v>
+        <v>42498</v>
       </c>
       <c r="I70" s="57">
-        <v>42480</v>
+        <v>42440</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B71" s="41">
-        <v>42479</v>
+        <v>42449</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E71" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F71" s="25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H71" s="57">
-        <v>42535</v>
+        <v>42450</v>
       </c>
       <c r="I71" s="57">
-        <v>42480</v>
+        <v>42450</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B72" s="41">
-        <v>42478</v>
+        <v>42455</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E72" s="40">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F72" s="25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72" s="57">
-        <v>42552</v>
+        <v>42502</v>
       </c>
       <c r="I72" s="57">
-        <v>42480</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B73" s="41">
-        <v>42480</v>
+        <v>42469</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>318</v>
@@ -10682,141 +10708,143 @@
         <v>9</v>
       </c>
       <c r="F73" s="25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" s="57">
-        <v>42568</v>
+        <v>42531</v>
       </c>
       <c r="I73" s="57">
-        <v>42482</v>
+        <v>42469</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74" s="41">
-        <v>42482</v>
+        <v>42492</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E74" s="40">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F74" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="20">
-        <v>1</v>
-      </c>
-      <c r="H74" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="H74" s="57">
+        <v>42545</v>
+      </c>
       <c r="I74" s="57">
-        <v>42485</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75" s="41">
-        <v>42486</v>
+        <v>42513</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E75" s="40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" s="25">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G75" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75" s="57">
-        <v>42535</v>
+        <v>42606</v>
       </c>
       <c r="I75" s="57">
-        <v>42487</v>
+        <v>42514</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B76" s="41">
-        <v>42488</v>
+        <v>42525</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E76" s="40">
+        <v>9</v>
+      </c>
+      <c r="F76" s="25">
         <v>6</v>
       </c>
-      <c r="F76" s="25">
-        <v>2</v>
-      </c>
       <c r="G76" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76" s="57">
-        <v>42559</v>
+        <v>42530</v>
       </c>
       <c r="I76" s="57">
-        <v>42489</v>
+        <v>42528</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B77" s="41">
-        <v>42494</v>
+        <v>42540</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E77" s="40">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F77" s="25">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G77" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77" s="57">
-        <v>42525</v>
+        <v>42615</v>
       </c>
       <c r="I77" s="57">
-        <v>42494</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B78" s="41">
-        <v>42492</v>
+        <v>42592</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>318</v>
@@ -10831,108 +10859,108 @@
         <v>4</v>
       </c>
       <c r="H78" s="57">
-        <v>42545</v>
+        <v>42606</v>
       </c>
       <c r="I78" s="57">
-        <v>42495</v>
+        <v>42592</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B79" s="41">
-        <v>42513</v>
+        <v>42593</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E79" s="40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F79" s="25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G79" s="20">
         <v>4</v>
       </c>
       <c r="H79" s="57">
-        <v>42606</v>
+        <v>42645</v>
       </c>
       <c r="I79" s="57">
-        <v>42514</v>
+        <v>42595</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B80" s="41">
-        <v>42516</v>
+        <v>42248</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E80" s="40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F80" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="57">
-        <v>42563</v>
+        <v>42298</v>
       </c>
       <c r="I80" s="57">
-        <v>42517</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B81" s="41">
-        <v>42525</v>
+        <v>42250</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E81" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F81" s="25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G81" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H81" s="57">
-        <v>42530</v>
+        <v>42291</v>
       </c>
       <c r="I81" s="57">
-        <v>42528</v>
+        <v>42252</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B82" s="41">
-        <v>42536</v>
+        <v>42253</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>318</v>
@@ -10941,255 +10969,257 @@
         <v>5</v>
       </c>
       <c r="F82" s="25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G82" s="20">
-        <v>2</v>
-      </c>
-      <c r="H82" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="H82" s="57">
+        <v>42313</v>
+      </c>
       <c r="I82" s="57">
-        <v>42538</v>
+        <v>42255</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B83" s="41">
-        <v>42537</v>
+        <v>42293</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E83" s="40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F83" s="25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G83" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H83" s="57">
-        <v>42608</v>
+        <v>42303</v>
       </c>
       <c r="I83" s="57">
-        <v>42538</v>
+        <v>42295</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B84" s="41">
-        <v>42539</v>
+        <v>42301</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E84" s="40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F84" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84" s="57">
-        <v>42574</v>
+        <v>42659</v>
       </c>
       <c r="I84" s="57">
-        <v>42541</v>
+        <v>42302</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B85" s="41">
-        <v>42540</v>
+        <v>42317</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E85" s="40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F85" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H85" s="57">
-        <v>42615</v>
+        <v>42408</v>
       </c>
       <c r="I85" s="57">
-        <v>42543</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B86" s="41">
-        <v>42544</v>
+        <v>42318</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E86" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86" s="20">
         <v>5</v>
       </c>
       <c r="H86" s="57">
-        <v>42615</v>
+        <v>42375</v>
       </c>
       <c r="I86" s="57">
-        <v>42544</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B87" s="41">
-        <v>42543</v>
+        <v>42343</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E87" s="40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F87" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="20">
         <v>5</v>
       </c>
-      <c r="H87" s="57">
-        <v>42568</v>
-      </c>
+      <c r="H87" s="57"/>
       <c r="I87" s="57">
-        <v>42545</v>
+        <v>42344</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B88" s="41">
-        <v>42546</v>
+        <v>42343</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E88" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" s="25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H88" s="57">
-        <v>42567</v>
+        <v>42425</v>
       </c>
       <c r="I88" s="57">
-        <v>42548</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B89" s="41">
-        <v>42558</v>
+        <v>42393</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E89" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="25">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G89" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89" s="57">
-        <v>42635</v>
+        <v>42434</v>
       </c>
       <c r="I89" s="57">
-        <v>42558</v>
+        <v>42396</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B90" s="41">
-        <v>42565</v>
+        <v>42414</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E90" s="40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F90" s="25">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G90" s="20">
         <v>5</v>
       </c>
-      <c r="H90" s="57"/>
+      <c r="H90" s="57">
+        <v>42619</v>
+      </c>
       <c r="I90" s="57">
-        <v>42568</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B91" s="41">
-        <v>42566</v>
+        <v>42424</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>318</v>
@@ -11198,33 +11228,33 @@
         <v>7</v>
       </c>
       <c r="F91" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G91" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H91" s="57">
-        <v>42615</v>
+        <v>42445</v>
       </c>
       <c r="I91" s="57">
-        <v>42568</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B92" s="41">
-        <v>42570</v>
+        <v>42458</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E92" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F92" s="25">
         <v>14</v>
@@ -11233,219 +11263,227 @@
         <v>5</v>
       </c>
       <c r="H92" s="57">
-        <v>42660</v>
+        <v>42505</v>
       </c>
       <c r="I92" s="57">
-        <v>42571</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B93" s="41">
-        <v>42572</v>
+        <v>42464</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E93" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F93" s="25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H93" s="57">
-        <v>42574</v>
+        <v>42523</v>
       </c>
       <c r="I93" s="57">
-        <v>42574</v>
+        <v>42465</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B94" s="41">
-        <v>42572</v>
+        <v>42480</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E94" s="40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F94" s="25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G94" s="20">
         <v>5</v>
       </c>
       <c r="H94" s="57">
-        <v>42659</v>
+        <v>42568</v>
       </c>
       <c r="I94" s="57">
-        <v>42575</v>
+        <v>42482</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B95" s="41">
-        <v>42574</v>
+        <v>42544</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E95" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F95" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G95" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95" s="57">
-        <v>42636</v>
+        <v>42615</v>
       </c>
       <c r="I95" s="57">
-        <v>42577</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B96" s="41">
-        <v>42578</v>
+        <v>42543</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E96" s="40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G96" s="20">
-        <v>2</v>
-      </c>
-      <c r="H96" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="H96" s="57">
+        <v>42568</v>
+      </c>
       <c r="I96" s="57">
-        <v>42578</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B97" s="41">
-        <v>42592</v>
+        <v>42565</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E97" s="40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F97" s="25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G97" s="20">
-        <v>4</v>
-      </c>
-      <c r="H97" s="57">
-        <v>42606</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H97" s="57"/>
       <c r="I97" s="57">
-        <v>42592</v>
+        <v>42568</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B98" s="41">
-        <v>42591</v>
+        <v>42570</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E98" s="40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F98" s="25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G98" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98" s="57">
-        <v>42636</v>
+        <v>42660</v>
       </c>
       <c r="I98" s="57">
-        <v>42594</v>
+        <v>42571</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B99" s="41">
-        <v>42593</v>
+        <v>42572</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>318</v>
       </c>
       <c r="E99" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H99" s="57">
-        <v>42645</v>
+        <v>42659</v>
       </c>
       <c r="I99" s="57">
-        <v>42595</v>
+        <v>42575</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
+    <sortCondition ref="G1:G99"/>
+  </sortState>
   <conditionalFormatting sqref="C1:C99">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>18</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12009,8 +12047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521C56A-CFD6-4686-B6DE-3FD82AA73165}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14005,7 +14043,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17204,7 +17242,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100 C1:C100">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ARA DATA Wait Lists Feb 2021.xlsx
+++ b/ARA DATA Wait Lists Feb 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/grc0396_arastudent_ac_nz/Documents/Database/Assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{5DD289D1-F4B3-4DC7-AB69-30A8261AB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219435E2-408E-43F3-B84C-ADFAD8DAD072}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{5DD289D1-F4B3-4DC7-AB69-30A8261AB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE648AF1-91FD-462B-ADF2-652D81551CC2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-240" yWindow="0" windowWidth="51840" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2229,18 +2229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2250,34 +2238,26 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2626,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2654,71 +2634,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="52"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="59" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="54"/>
       <c r="K1" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="60"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="49"/>
       <c r="O1" s="49"/>
       <c r="P1" s="55"/>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="R1" s="58"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="54"/>
       <c r="K2" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="61"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
       <c r="P2" s="55"/>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="53"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -8566,6 +8546,11 @@
     <sortCondition ref="Q5:Q102"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -8573,17 +8558,12 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:O103 N4:N102">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8595,8 +8575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11481,7 +11461,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14043,7 +14023,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17242,7 +17222,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100 C1:C100">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
